--- a/biology/Zoologie/Élevage_de_crustacés/Élevage_de_crustacés.xlsx
+++ b/biology/Zoologie/Élevage_de_crustacés/Élevage_de_crustacés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89levage_de_crustac%C3%A9s</t>
+          <t>Élevage_de_crustacés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'élevage de crustacés ou crustaticulture peut avoir différentes formes, pour l'alimentation humaine ou animale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89levage_de_crustac%C3%A9s</t>
+          <t>Élevage_de_crustacés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Alimentation humaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'astaciculture est l'élevage des écrevisses.
 La crevetticulture est l'élevage de crevettes de mer et de crevettes d'eau douce.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89levage_de_crustac%C3%A9s</t>
+          <t>Élevage_de_crustacés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,11 @@
           <t>Alimentation animale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après décorticage, les restes de crevettes sont broyés et desséchés pour faire des aliments pour poissons (aquariophilie ou aquaculture).
-Pour l'aquariophilie
-Les amateurs peuvent pratiquer l'élevage des Artemia, des daphnies.
-Nourriture pour alevins
-L'amateur peut pratiquer la culture de copépodes ou en acheter sous forme d'œufs déshydratés dans le commerce. Ces œufs proviennent alors des États-Unis où est pratiquée la culture à grande échelle dans certains lacs.
 </t>
         </is>
       </c>
@@ -561,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89levage_de_crustac%C3%A9s</t>
+          <t>Élevage_de_crustacés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,14 +588,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aquariophilie</t>
+          <t>Alimentation animale</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>On peut vouloir élever des crustacés en aquarium.
-crevettes rayées tropicales.
-crevettes fluorescentes.</t>
+          <t>Pour l'aquariophilie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amateurs peuvent pratiquer l'élevage des Artemia, des daphnies.
+</t>
         </is>
       </c>
     </row>
@@ -593,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89levage_de_crustac%C3%A9s</t>
+          <t>Élevage_de_crustacés</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +625,83 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Alimentation animale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nourriture pour alevins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amateur peut pratiquer la culture de copépodes ou en acheter sous forme d'œufs déshydratés dans le commerce. Ces œufs proviennent alors des États-Unis où est pratiquée la culture à grande échelle dans certains lacs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Élevage_de_crustacés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89levage_de_crustac%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aquariophilie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On peut vouloir élever des crustacés en aquarium.
+crevettes rayées tropicales.
+crevettes fluorescentes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Élevage_de_crustacés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89levage_de_crustac%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des crustacés utilisés en cuisine
  Portail de l’élevage   Portail de la carcinologie et des crustacés                    </t>
